--- a/Normalization Explanation/Normalization 3NF.xlsx
+++ b/Normalization Explanation/Normalization 3NF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammi\Documents\GitHub\CSCI1320-Public-Repo\CSCI1320-PublicRepo\Normalization Explanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5E8B7-E8D9-4B92-86E6-781775BF8B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884340F-CD7B-45D0-9AB4-52A8D39707CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12276" yWindow="-23400" windowWidth="19524" windowHeight="12840" activeTab="1" xr2:uid="{DD7BDCA2-6092-45C0-AEC4-12FFB5DDCB2F}"/>
+    <workbookView xWindow="-23532" yWindow="396" windowWidth="23016" windowHeight="12936" activeTab="1" xr2:uid="{DD7BDCA2-6092-45C0-AEC4-12FFB5DDCB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="3NF" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t xml:space="preserve">3NF - Third Normal Form </t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>REPRESENATIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ripley </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +141,13 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,16 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -197,6 +204,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2EE0F6-9785-4CC0-A9C7-249993B4F5AA}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,8 +533,8 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -589,6 +600,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -596,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C704B9-447A-4DCB-9D7A-CBB9063CD6D0}">
   <dimension ref="B3:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,41 +623,41 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -679,7 +691,9 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2">
         <v>5000</v>
       </c>
@@ -710,58 +724,58 @@
         <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="5" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="6" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -783,7 +797,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>15</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -809,7 +823,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>45</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -837,8 +851,8 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="8">
-        <v>15</v>
+      <c r="I20" s="7">
+        <v>16</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>22</v>
